--- a/data/matched_goalkeepers.xlsx
+++ b/data/matched_goalkeepers.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="67">
   <si>
-    <t>Player_Agg</t>
-  </si>
-  <si>
-    <t>Player_FPL</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>Season</t>
+    <t>player_agg</t>
+  </si>
+  <si>
+    <t>player_fpl</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>season</t>
   </si>
   <si>
     <t>Artur Boruc</t>
